--- a/attached_assets/CR 2_1762338481710.xlsx
+++ b/attached_assets/CR 2_1762338481710.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtnenggdiv-my.sharepoint.com/personal/gtnit_gtnengg_net/Documents/Narain_IT/Desktop/Contract Review/attached_assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_E6D32B4BFBE25DA7E85A549B00AEBEABB9FCC01C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8647AAD-E291-4FA8-BF3D-29726CE24192}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="11_E6D32B4BFBE25DA7E85A549B00AEBEABB9FCC01C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAEA26DB-11BC-4061-A8DA-F93D12057864}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="FMCCustomer">[1]Sheet12!$A$1:$A$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CR 2'!$A$1:$AF$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CR 2'!$A$1:$AF$41</definedName>
     <definedName name="zone" localSheetId="0">#REF!</definedName>
     <definedName name="zone">#REF!</definedName>
   </definedNames>
@@ -410,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -822,37 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -870,7 +839,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -915,23 +884,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -942,6 +920,90 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1044,106 +1106,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1151,18 +1114,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1638,10 +1589,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF42"/>
+  <dimension ref="A1:AF41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH39" sqref="AH39"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1668,301 +1619,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="e" vm="1">
+      <c r="A1" s="61" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="37" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="39" t="s">
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="72"/>
     </row>
     <row r="2" spans="1:32" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37" t="s">
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="42" t="s">
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44"/>
+      <c r="AC2" s="74"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="75"/>
     </row>
     <row r="3" spans="1:32" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="59" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="50"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="81"/>
       <c r="Y3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="51"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="53"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="84"/>
     </row>
     <row r="4" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="57" t="s">
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="86"/>
+      <c r="W4" s="86"/>
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="58"/>
+      <c r="AD4" s="88"/>
+      <c r="AE4" s="88"/>
+      <c r="AF4" s="89"/>
     </row>
     <row r="5" spans="1:32" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="54" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="54" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="63" t="s">
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="60" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="61"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="63" t="s">
+      <c r="W5" s="53"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="63"/>
-      <c r="AB5" s="63"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="58"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="89"/>
     </row>
     <row r="6" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="64" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="65"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="7"/>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="64" t="s">
+      <c r="O6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="64" t="s">
+      <c r="P6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="Q6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="64" t="s">
+      <c r="R6" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="S6" s="64" t="s">
+      <c r="S6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="64" t="s">
+      <c r="T6" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="V6" s="64" t="s">
+      <c r="V6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="64" t="s">
+      <c r="W6" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="X6" s="64" t="s">
+      <c r="X6" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" s="64" t="s">
+      <c r="Y6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="Z6" s="64" t="s">
+      <c r="Z6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="64" t="s">
+      <c r="AA6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AB6" s="64" t="s">
+      <c r="AB6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="58"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="89"/>
     </row>
     <row r="7" spans="1:32" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="8" t="s">
         <v>38</v>
       </c>
@@ -1981,25 +1932,25 @@
       <c r="M7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="58"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="40"/>
+      <c r="Y7" s="40"/>
+      <c r="Z7" s="40"/>
+      <c r="AA7" s="40"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="89"/>
     </row>
     <row r="8" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
@@ -2030,10 +1981,10 @@
       <c r="Z8" s="10"/>
       <c r="AA8" s="10"/>
       <c r="AB8" s="12"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="77"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="18"/>
     </row>
     <row r="9" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
@@ -2064,10 +2015,10 @@
       <c r="Z9" s="10"/>
       <c r="AA9" s="10"/>
       <c r="AB9" s="14"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="77"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="18"/>
     </row>
     <row r="10" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -2098,10 +2049,10 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="10"/>
       <c r="AB10" s="14"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="77"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="18"/>
     </row>
     <row r="11" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -2132,10 +2083,10 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="10"/>
       <c r="AB11" s="14"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="77"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="18"/>
     </row>
     <row r="12" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
@@ -2166,10 +2117,10 @@
       <c r="Z12" s="15"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="14"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="77"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -2200,10 +2151,10 @@
       <c r="Z13" s="15"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="14"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="77"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="18"/>
     </row>
     <row r="14" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -2234,10 +2185,10 @@
       <c r="Z14" s="15"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="14"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="77"/>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="18"/>
     </row>
     <row r="15" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
@@ -2268,10 +2219,10 @@
       <c r="Z15" s="15"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="14"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="77"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="18"/>
     </row>
     <row r="16" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -2302,10 +2253,10 @@
       <c r="Z16" s="15"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="14"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="77"/>
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="18"/>
     </row>
     <row r="17" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
@@ -2336,10 +2287,10 @@
       <c r="Z17" s="15"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="14"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="77"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="18"/>
     </row>
     <row r="18" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
@@ -2370,10 +2321,10 @@
       <c r="Z18" s="15"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="14"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="77"/>
+      <c r="AC18" s="16"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="18"/>
     </row>
     <row r="19" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
@@ -2404,10 +2355,10 @@
       <c r="Z19" s="15"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="14"/>
-      <c r="AC19" s="75"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="77"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="18"/>
     </row>
     <row r="20" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
@@ -2438,10 +2389,10 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="14"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="77"/>
+      <c r="AC20" s="16"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="18"/>
     </row>
     <row r="21" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
@@ -2472,10 +2423,10 @@
       <c r="Z21" s="15"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="14"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="77"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="18"/>
     </row>
     <row r="22" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
@@ -2506,10 +2457,10 @@
       <c r="Z22" s="15"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="14"/>
-      <c r="AC22" s="75"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="77"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="18"/>
     </row>
     <row r="23" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
@@ -2540,10 +2491,10 @@
       <c r="Z23" s="15"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="14"/>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="77"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="18"/>
     </row>
     <row r="24" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
@@ -2574,10 +2525,10 @@
       <c r="Z24" s="15"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="14"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="77"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="18"/>
     </row>
     <row r="25" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
@@ -2608,10 +2559,10 @@
       <c r="Z25" s="15"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="14"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="77"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="18"/>
     </row>
     <row r="26" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
@@ -2642,10 +2593,10 @@
       <c r="Z26" s="15"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="14"/>
-      <c r="AC26" s="75"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="77"/>
+      <c r="AC26" s="16"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="18"/>
     </row>
     <row r="27" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
@@ -2676,10 +2627,10 @@
       <c r="Z27" s="15"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="14"/>
-      <c r="AC27" s="75"/>
-      <c r="AD27" s="76"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="77"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="18"/>
     </row>
     <row r="28" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
@@ -2710,10 +2661,10 @@
       <c r="Z28" s="15"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="14"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="77"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="18"/>
     </row>
     <row r="29" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
@@ -2744,10 +2695,10 @@
       <c r="Z29" s="15"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="14"/>
-      <c r="AC29" s="75"/>
-      <c r="AD29" s="76"/>
-      <c r="AE29" s="76"/>
-      <c r="AF29" s="77"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="18"/>
     </row>
     <row r="30" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
@@ -2778,10 +2729,10 @@
       <c r="Z30" s="15"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="14"/>
-      <c r="AC30" s="75"/>
-      <c r="AD30" s="76"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="77"/>
+      <c r="AC30" s="16"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="18"/>
     </row>
     <row r="31" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -2812,10 +2763,10 @@
       <c r="Z31" s="15"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="76"/>
-      <c r="AE31" s="76"/>
-      <c r="AF31" s="77"/>
+      <c r="AC31" s="16"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="18"/>
     </row>
     <row r="32" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -2846,10 +2797,10 @@
       <c r="Z32" s="15"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="14"/>
-      <c r="AC32" s="75"/>
-      <c r="AD32" s="76"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="77"/>
+      <c r="AC32" s="16"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="18"/>
     </row>
     <row r="33" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
@@ -2880,10 +2831,10 @@
       <c r="Z33" s="15"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="14"/>
-      <c r="AC33" s="75"/>
-      <c r="AD33" s="76"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="77"/>
+      <c r="AC33" s="16"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="18"/>
     </row>
     <row r="34" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
@@ -2914,10 +2865,10 @@
       <c r="Z34" s="15"/>
       <c r="AA34" s="10"/>
       <c r="AB34" s="14"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="76"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="77"/>
+      <c r="AC34" s="16"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="18"/>
     </row>
     <row r="35" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -2948,10 +2899,10 @@
       <c r="Z35" s="15"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="14"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="76"/>
-      <c r="AE35" s="76"/>
-      <c r="AF35" s="77"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="18"/>
     </row>
     <row r="36" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
@@ -2982,10 +2933,10 @@
       <c r="Z36" s="15"/>
       <c r="AA36" s="10"/>
       <c r="AB36" s="14"/>
-      <c r="AC36" s="75"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="77"/>
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="18"/>
     </row>
     <row r="37" spans="1:32" s="13" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -3016,256 +2967,188 @@
       <c r="Z37" s="15"/>
       <c r="AA37" s="10"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="76"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="77"/>
-    </row>
-    <row r="38" spans="1:32" s="6" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="92" t="s">
+      <c r="AC37" s="16"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="18"/>
+    </row>
+    <row r="38" spans="1:32" s="6" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="98"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="76"/>
-      <c r="U38" s="98"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="76"/>
-      <c r="AA38" s="76"/>
-      <c r="AB38" s="98"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="17"/>
-      <c r="AE38" s="17"/>
-      <c r="AF38" s="18"/>
-    </row>
-    <row r="39" spans="1:32" s="6" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="98"/>
-      <c r="S39" s="75"/>
-      <c r="T39" s="76"/>
-      <c r="U39" s="98"/>
-      <c r="V39" s="75"/>
-      <c r="W39" s="76"/>
-      <c r="X39" s="98"/>
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="76"/>
-      <c r="AA39" s="76"/>
-      <c r="AB39" s="98"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
-      <c r="AF39" s="21"/>
-    </row>
-    <row r="40" spans="1:32" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="16"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="41"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="39"/>
+    </row>
+    <row r="39" spans="1:32" s="6" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="83" t="s">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="83" t="s">
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="86" t="s">
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="T40" s="87"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="89" t="s">
+      <c r="T39" s="32"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="W40" s="90"/>
-      <c r="X40" s="91"/>
-      <c r="Y40" s="86" t="s">
+      <c r="W39" s="35"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="87"/>
-      <c r="AB40" s="88"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="18"/>
-    </row>
-    <row r="41" spans="1:32" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="78" t="s">
+      <c r="Z39" s="32"/>
+      <c r="AA39" s="32"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="39"/>
+    </row>
+    <row r="40" spans="1:32" s="6" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-      <c r="AE41" s="26"/>
-      <c r="AF41" s="27"/>
-    </row>
-    <row r="42" spans="1:32" s="6" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="80" t="s">
+      <c r="B40" s="20"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="57"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="57"/>
+      <c r="AE40" s="57"/>
+      <c r="AF40" s="58"/>
+    </row>
+    <row r="41" spans="1:32" s="6" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="81"/>
-      <c r="D42" s="81"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="81"/>
-      <c r="J42" s="81"/>
-      <c r="K42" s="81"/>
-      <c r="L42" s="81"/>
-      <c r="M42" s="81"/>
-      <c r="N42" s="81"/>
-      <c r="O42" s="81"/>
-      <c r="P42" s="81"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="81"/>
-      <c r="S42" s="81"/>
-      <c r="T42" s="81"/>
-      <c r="U42" s="81"/>
-      <c r="V42" s="81"/>
-      <c r="W42" s="81"/>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="81"/>
-      <c r="Z42" s="81"/>
-      <c r="AA42" s="81"/>
-      <c r="AB42" s="81"/>
-      <c r="AC42" s="81"/>
-      <c r="AD42" s="81"/>
-      <c r="AE42" s="81"/>
-      <c r="AF42" s="82"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
-    <mergeCell ref="AC17:AF17"/>
-    <mergeCell ref="AC18:AF18"/>
-    <mergeCell ref="AC19:AF19"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="AC12:AF12"/>
-    <mergeCell ref="AC13:AF13"/>
-    <mergeCell ref="AC14:AF14"/>
-    <mergeCell ref="AC15:AF15"/>
-    <mergeCell ref="AC16:AF16"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="A42:AF42"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AC27:AF27"/>
-    <mergeCell ref="AC26:AF26"/>
-    <mergeCell ref="AC25:AF25"/>
-    <mergeCell ref="AC24:AF24"/>
-    <mergeCell ref="AC23:AF23"/>
-    <mergeCell ref="AC22:AF22"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AC8:AF8"/>
-    <mergeCell ref="AC9:AF9"/>
-    <mergeCell ref="AC10:AF10"/>
-    <mergeCell ref="AC11:AF11"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AC30:AF30"/>
-    <mergeCell ref="AC28:AF28"/>
-    <mergeCell ref="AC29:AF29"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
+  <mergeCells count="90">
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="F38:M38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="C40:AF40"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="C2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="F4:AB4"/>
+    <mergeCell ref="AC4:AF7"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="N5:R5"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="V5:X5"/>
     <mergeCell ref="Y5:AB5"/>
@@ -3282,31 +3165,59 @@
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="C41:AF41"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="C2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="F4:AB4"/>
-    <mergeCell ref="AC4:AF7"/>
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="AC38:AF39"/>
+    <mergeCell ref="AC30:AF30"/>
+    <mergeCell ref="AC28:AF28"/>
+    <mergeCell ref="AC29:AF29"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="AC9:AF9"/>
+    <mergeCell ref="AC10:AF10"/>
+    <mergeCell ref="AC11:AF11"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="AC32:AF32"/>
+    <mergeCell ref="AC31:AF31"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="A41:AF41"/>
     <mergeCell ref="A39:E39"/>
-    <mergeCell ref="F38:M38"/>
     <mergeCell ref="F39:M39"/>
-    <mergeCell ref="N38:R38"/>
     <mergeCell ref="N39:R39"/>
-    <mergeCell ref="S38:U38"/>
     <mergeCell ref="S39:U39"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="Y39:AB39"/>
+    <mergeCell ref="AC39:AF39"/>
+    <mergeCell ref="AC27:AF27"/>
+    <mergeCell ref="AC26:AF26"/>
+    <mergeCell ref="AC25:AF25"/>
+    <mergeCell ref="AC24:AF24"/>
+    <mergeCell ref="AC23:AF23"/>
+    <mergeCell ref="AC22:AF22"/>
+    <mergeCell ref="AC12:AF12"/>
+    <mergeCell ref="AC13:AF13"/>
+    <mergeCell ref="AC14:AF14"/>
+    <mergeCell ref="AC15:AF15"/>
+    <mergeCell ref="AC16:AF16"/>
+    <mergeCell ref="AC17:AF17"/>
+    <mergeCell ref="AC18:AF18"/>
+    <mergeCell ref="AC19:AF19"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="AC21:AF21"/>
   </mergeCells>
   <conditionalFormatting sqref="A3 D3:E3 O3 R3 Y3 AA3:AB3">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="N/A">
